--- a/MXIC_PCCS/Content/計價單.xlsx
+++ b/MXIC_PCCS/Content/計價單.xlsx
@@ -27,7 +27,7 @@
     <t>供應商Vendor：</t>
   </si>
   <si>
-    <t>大川言</t>
+    <t>大川研</t>
   </si>
   <si>
     <t>幣別Currency：</t>
@@ -39,7 +39,7 @@
     <t>PO NO.：</t>
   </si>
   <si>
-    <t>4088440</t>
+    <t>4500090268</t>
   </si>
   <si>
     <t xml:space="preserve">申請
@@ -1424,9 +1424,7 @@
       <c r="G9" s="26">
         <v>84000</v>
       </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="27">
         <f>G9*H9</f>
         <v>0</v>
@@ -1449,9 +1447,7 @@
       <c r="G10" s="25">
         <v>687</v>
       </c>
-      <c r="H10" s="30">
-        <v>1</v>
-      </c>
+      <c r="H10" s="30"/>
       <c r="I10" s="27">
         <f>G10*H10</f>
         <v>0</v>
@@ -1583,9 +1579,7 @@
       <c r="G16" s="32">
         <v>84000</v>
       </c>
-      <c r="H16" s="31">
-        <v>6</v>
-      </c>
+      <c r="H16" s="31"/>
       <c r="I16" s="27">
         <f>G16*H16</f>
         <v>0</v>
@@ -1607,9 +1601,7 @@
       <c r="G17" s="26">
         <v>87000</v>
       </c>
-      <c r="H17" s="30">
-        <v>2</v>
-      </c>
+      <c r="H17" s="30"/>
       <c r="I17" s="27">
         <f>G17*H17</f>
         <v>0</v>
@@ -1631,9 +1623,7 @@
       <c r="G18" s="26">
         <v>84000</v>
       </c>
-      <c r="H18" s="30">
-        <v>2</v>
-      </c>
+      <c r="H18" s="30"/>
       <c r="I18" s="27">
         <f>G18*H18</f>
         <v>0</v>
